--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1702,28 +1702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>212.6165402363734</v>
+        <v>249.1180012228359</v>
       </c>
       <c r="AB2" t="n">
-        <v>290.9113303310209</v>
+        <v>340.854239583481</v>
       </c>
       <c r="AC2" t="n">
-        <v>263.1471612609305</v>
+        <v>308.323589349665</v>
       </c>
       <c r="AD2" t="n">
-        <v>212616.5402363734</v>
+        <v>249118.0012228359</v>
       </c>
       <c r="AE2" t="n">
-        <v>290911.3303310209</v>
+        <v>340854.239583481</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.06333956252926e-06</v>
+        <v>5.667980217178418e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.9609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>263147.1612609305</v>
+        <v>308323.589349665</v>
       </c>
     </row>
     <row r="3">
@@ -1808,28 +1808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>115.1792348328422</v>
+        <v>127.3749249550713</v>
       </c>
       <c r="AB3" t="n">
-        <v>157.593310447444</v>
+        <v>174.279991708545</v>
       </c>
       <c r="AC3" t="n">
-        <v>142.5528260819836</v>
+        <v>157.6469539034347</v>
       </c>
       <c r="AD3" t="n">
-        <v>115179.2348328422</v>
+        <v>127374.9249550713</v>
       </c>
       <c r="AE3" t="n">
-        <v>157593.310447444</v>
+        <v>174279.991708545</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.607520392296753e-06</v>
+        <v>8.525119041070946e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.297526041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>142552.8260819836</v>
+        <v>157646.9539034347</v>
       </c>
     </row>
     <row r="4">
@@ -1914,28 +1914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>115.2354293871411</v>
+        <v>127.4311195093701</v>
       </c>
       <c r="AB4" t="n">
-        <v>157.6701983157645</v>
+        <v>174.3568795768655</v>
       </c>
       <c r="AC4" t="n">
-        <v>142.6223758800645</v>
+        <v>157.7165037015154</v>
       </c>
       <c r="AD4" t="n">
-        <v>115235.4293871411</v>
+        <v>127431.1195093701</v>
       </c>
       <c r="AE4" t="n">
-        <v>157670.1983157645</v>
+        <v>174356.8795768655</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.61368255051458e-06</v>
+        <v>8.536520647115865e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.294270833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>142622.3758800644</v>
+        <v>157716.5037015154</v>
       </c>
     </row>
   </sheetData>
@@ -2211,28 +2211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.5759246507935</v>
+        <v>179.0180975702071</v>
       </c>
       <c r="AB2" t="n">
-        <v>212.8658436325124</v>
+        <v>244.9404588165173</v>
       </c>
       <c r="AC2" t="n">
-        <v>192.5502262753742</v>
+        <v>221.563685203233</v>
       </c>
       <c r="AD2" t="n">
-        <v>155575.9246507935</v>
+        <v>179018.0975702071</v>
       </c>
       <c r="AE2" t="n">
-        <v>212865.8436325124</v>
+        <v>244940.4588165173</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.819487655545966e-06</v>
+        <v>7.280532942162017e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.1162109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>192550.2262753742</v>
+        <v>221563.685203233</v>
       </c>
     </row>
     <row r="3">
@@ -2317,28 +2317,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.0468002631273</v>
+        <v>133.4036323279692</v>
       </c>
       <c r="AB3" t="n">
-        <v>150.5708870421308</v>
+        <v>182.5287351039381</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.2006129104381</v>
+        <v>165.1084488063582</v>
       </c>
       <c r="AD3" t="n">
-        <v>110046.8002631273</v>
+        <v>133403.6323279692</v>
       </c>
       <c r="AE3" t="n">
-        <v>150570.8870421308</v>
+        <v>182528.7351039381</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.670022699034088e-06</v>
+        <v>8.901784000163755e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.365885416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>136200.6129104381</v>
+        <v>165108.4488063582</v>
       </c>
     </row>
   </sheetData>
@@ -2614,28 +2614,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.4512249125721</v>
+        <v>137.292858548933</v>
       </c>
       <c r="AB2" t="n">
-        <v>159.3337033907715</v>
+        <v>187.8501460000094</v>
       </c>
       <c r="AC2" t="n">
-        <v>144.1271183654573</v>
+        <v>169.9219917151572</v>
       </c>
       <c r="AD2" t="n">
-        <v>116451.2249125721</v>
+        <v>137292.858548933</v>
       </c>
       <c r="AE2" t="n">
-        <v>159333.7033907715</v>
+        <v>187850.1460000094</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.368043142009869e-06</v>
+        <v>9.302788762773744e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.015299479166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>144127.1183654573</v>
+        <v>169921.9917151572</v>
       </c>
     </row>
   </sheetData>
@@ -2911,28 +2911,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.2262648464475</v>
+        <v>127.1698569388479</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.9752178180196</v>
+        <v>173.999408601786</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.2344250999941</v>
+        <v>157.3931492545838</v>
       </c>
       <c r="AD2" t="n">
-        <v>105226.2648464475</v>
+        <v>127169.8569388479</v>
       </c>
       <c r="AE2" t="n">
-        <v>143975.2178180196</v>
+        <v>173999.408601786</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.592221860385803e-06</v>
+        <v>9.323798053080412e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.653971354166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>130234.4250999941</v>
+        <v>157393.1492545838</v>
       </c>
     </row>
   </sheetData>
@@ -3208,28 +3208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.5261594287303</v>
+        <v>140.7044768772887</v>
       </c>
       <c r="AB2" t="n">
-        <v>164.9092085691994</v>
+        <v>192.5180727068415</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.1705051549285</v>
+        <v>174.144418048567</v>
       </c>
       <c r="AD2" t="n">
-        <v>120526.1594287303</v>
+        <v>140704.4768772887</v>
       </c>
       <c r="AE2" t="n">
-        <v>164909.2085691994</v>
+        <v>192518.0727068415</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.033212337952537e-06</v>
+        <v>8.981176093287829e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.5166015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>149170.5051549285</v>
+        <v>174144.418048567</v>
       </c>
     </row>
   </sheetData>
@@ -3505,28 +3505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.6673085370517</v>
+        <v>191.3365178462145</v>
       </c>
       <c r="AB2" t="n">
-        <v>229.4098084998917</v>
+        <v>261.7950648884899</v>
       </c>
       <c r="AC2" t="n">
-        <v>207.5152583554166</v>
+        <v>236.8097113272902</v>
       </c>
       <c r="AD2" t="n">
-        <v>167667.3085370517</v>
+        <v>191336.5178462145</v>
       </c>
       <c r="AE2" t="n">
-        <v>229409.8084998917</v>
+        <v>261795.06488849</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.618532030619269e-06</v>
+        <v>6.8417888972429e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.305013020833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>207515.2583554166</v>
+        <v>236809.7113272902</v>
       </c>
     </row>
     <row r="3">
@@ -3611,28 +3611,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>111.4310401158223</v>
+        <v>135.0149085704134</v>
       </c>
       <c r="AB3" t="n">
-        <v>152.4648650769395</v>
+        <v>184.7333543433402</v>
       </c>
       <c r="AC3" t="n">
-        <v>137.9138323398201</v>
+        <v>167.1026622797549</v>
       </c>
       <c r="AD3" t="n">
-        <v>111431.0401158223</v>
+        <v>135014.9085704134</v>
       </c>
       <c r="AE3" t="n">
-        <v>152464.8650769395</v>
+        <v>184733.3543433402</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.649800258793324e-06</v>
+        <v>8.791673395679441e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.351236979166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>137913.8323398201</v>
+        <v>167102.6622797549</v>
       </c>
     </row>
   </sheetData>
@@ -3908,28 +3908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.9001022273399</v>
+        <v>154.2135283271641</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.8938300709915</v>
+        <v>211.0017528778398</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.5839627800605</v>
+        <v>190.8640417260592</v>
       </c>
       <c r="AD2" t="n">
-        <v>124900.1022273399</v>
+        <v>154213.5283271642</v>
       </c>
       <c r="AE2" t="n">
-        <v>170893.8300709915</v>
+        <v>211001.7528778398</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.76782472829913e-06</v>
+        <v>8.637989685085226e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.947916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>154583.9627800605</v>
+        <v>190864.0417260592</v>
       </c>
     </row>
   </sheetData>
@@ -4205,28 +4205,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.1346167714647</v>
+        <v>135.9251981047783</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.795773813686</v>
+        <v>185.9788526433975</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.0222824181833</v>
+        <v>168.229291970123</v>
       </c>
       <c r="AD2" t="n">
-        <v>113134.6167714647</v>
+        <v>135925.1981047783</v>
       </c>
       <c r="AE2" t="n">
-        <v>154795.773813686</v>
+        <v>185978.8526433975</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.468846477133986e-06</v>
+        <v>8.758877336018431e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.624674479166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>140022.2824181833</v>
+        <v>168229.291970123</v>
       </c>
     </row>
     <row r="3">
@@ -4311,28 +4311,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.3330949388884</v>
+        <v>129.9530840716099</v>
       </c>
       <c r="AB3" t="n">
-        <v>146.8578756972796</v>
+        <v>177.8075427521442</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.8419661570942</v>
+        <v>160.8378404263829</v>
       </c>
       <c r="AD3" t="n">
-        <v>107333.0949388884</v>
+        <v>129953.0840716099</v>
       </c>
       <c r="AE3" t="n">
-        <v>146857.8756972796</v>
+        <v>177807.5427521442</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.666579524321845e-06</v>
+        <v>9.14643137584894e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.470052083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>132841.9661570942</v>
+        <v>160837.8404263829</v>
       </c>
     </row>
   </sheetData>
@@ -4608,28 +4608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.9827111575709</v>
+        <v>155.2744656895797</v>
       </c>
       <c r="AB2" t="n">
-        <v>180.5845680719822</v>
+        <v>212.4533741823492</v>
       </c>
       <c r="AC2" t="n">
-        <v>163.3498303472759</v>
+        <v>192.1771223306299</v>
       </c>
       <c r="AD2" t="n">
-        <v>131982.7111575709</v>
+        <v>155274.4656895797</v>
       </c>
       <c r="AE2" t="n">
-        <v>180584.5680719822</v>
+        <v>212453.3741823492</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.039950375369068e-06</v>
+        <v>7.767625034770132e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.929036458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>163349.8303472759</v>
+        <v>192177.1223306299</v>
       </c>
     </row>
     <row r="3">
@@ -4714,28 +4714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.0884810243593</v>
+        <v>132.209643355776</v>
       </c>
       <c r="AB3" t="n">
-        <v>149.2596723815882</v>
+        <v>180.8950667171083</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.0145387367959</v>
+        <v>163.6306954374988</v>
       </c>
       <c r="AD3" t="n">
-        <v>109088.4810243593</v>
+        <v>132209.643355776</v>
       </c>
       <c r="AE3" t="n">
-        <v>149259.6723815882</v>
+        <v>180895.0667171083</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.667091390341647e-06</v>
+        <v>8.973430996628544e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.400065104166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>135014.5387367959</v>
+        <v>163630.6954374989</v>
       </c>
     </row>
   </sheetData>
@@ -5011,28 +5011,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>196.0845283783878</v>
+        <v>232.2777538419244</v>
       </c>
       <c r="AB2" t="n">
-        <v>268.2915023660475</v>
+        <v>317.8126701776491</v>
       </c>
       <c r="AC2" t="n">
-        <v>242.686137929799</v>
+        <v>287.4810749888726</v>
       </c>
       <c r="AD2" t="n">
-        <v>196084.5283783878</v>
+        <v>232277.7538419244</v>
       </c>
       <c r="AE2" t="n">
-        <v>268291.5023660475</v>
+        <v>317812.6701776491</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.239819542992251e-06</v>
+        <v>6.035538079867058e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.728190104166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>242686.137929799</v>
+        <v>287481.0749888726</v>
       </c>
     </row>
     <row r="3">
@@ -5117,28 +5117,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.6779745999861</v>
+        <v>137.6930932781327</v>
       </c>
       <c r="AB3" t="n">
-        <v>155.5392199659243</v>
+        <v>188.3977648136102</v>
       </c>
       <c r="AC3" t="n">
-        <v>140.6947751130854</v>
+        <v>170.4173465577759</v>
       </c>
       <c r="AD3" t="n">
-        <v>113677.9745999861</v>
+        <v>137693.0932781327</v>
       </c>
       <c r="AE3" t="n">
-        <v>155539.2199659243</v>
+        <v>188397.7648136102</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.633341924200276e-06</v>
+        <v>8.631564582367901e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.3056640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>140694.7751130854</v>
+        <v>170417.3465577759</v>
       </c>
     </row>
     <row r="4">
@@ -5223,28 +5223,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>114.0522758743081</v>
+        <v>138.0673945524547</v>
       </c>
       <c r="AB4" t="n">
-        <v>156.0513554824582</v>
+        <v>188.9099003301441</v>
       </c>
       <c r="AC4" t="n">
-        <v>141.1580331347081</v>
+        <v>170.8806045793987</v>
       </c>
       <c r="AD4" t="n">
-        <v>114052.2758743081</v>
+        <v>138067.3945524547</v>
       </c>
       <c r="AE4" t="n">
-        <v>156051.3554824582</v>
+        <v>188909.9003301441</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.631177338884697e-06</v>
+        <v>8.627532124101032e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.307291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>141158.0331347082</v>
+        <v>170880.6045793987</v>
       </c>
     </row>
   </sheetData>
@@ -5520,28 +5520,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.7831050115303</v>
+        <v>128.0240719897481</v>
       </c>
       <c r="AB2" t="n">
-        <v>144.7371110979398</v>
+        <v>175.1681833197353</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.9236043546028</v>
+        <v>158.4503777538381</v>
       </c>
       <c r="AD2" t="n">
-        <v>105783.1050115303</v>
+        <v>128024.0719897481</v>
       </c>
       <c r="AE2" t="n">
-        <v>144737.1110979397</v>
+        <v>175168.1833197353</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.620171331601947e-06</v>
+        <v>9.261121213678267e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.587239583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>130923.6043546028</v>
+        <v>158450.3777538381</v>
       </c>
     </row>
     <row r="3">
@@ -5626,28 +5626,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.1896413633397</v>
+        <v>128.4306083415575</v>
       </c>
       <c r="AB3" t="n">
-        <v>145.2933520696031</v>
+        <v>175.7244242913987</v>
       </c>
       <c r="AC3" t="n">
-        <v>131.4267584686199</v>
+        <v>158.9535318678551</v>
       </c>
       <c r="AD3" t="n">
-        <v>106189.6413633397</v>
+        <v>128430.6083415575</v>
       </c>
       <c r="AE3" t="n">
-        <v>145293.3520696031</v>
+        <v>175724.4242913987</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.621189483863308e-06</v>
+        <v>9.263162097193115e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.585611979166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>131426.7584686199</v>
+        <v>158953.5318678551</v>
       </c>
     </row>
   </sheetData>
@@ -5923,28 +5923,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.3567688617144</v>
+        <v>126.6472668754582</v>
       </c>
       <c r="AB2" t="n">
-        <v>144.1537791691385</v>
+        <v>173.2843778220101</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.3959448063746</v>
+        <v>156.7463600088775</v>
       </c>
       <c r="AD2" t="n">
-        <v>105356.7688617144</v>
+        <v>126647.2668754582</v>
       </c>
       <c r="AE2" t="n">
-        <v>144153.7791691385</v>
+        <v>173284.3778220101</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.462378366157897e-06</v>
+        <v>9.335574609849924e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.868815104166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>130395.9448063746</v>
+        <v>156746.3600088775</v>
       </c>
     </row>
   </sheetData>
@@ -9617,28 +9617,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.9388387491629</v>
+        <v>138.38435780893</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.3691222708845</v>
+        <v>189.3435834410853</v>
       </c>
       <c r="AC2" t="n">
-        <v>145.9682797243813</v>
+        <v>171.2728975829099</v>
       </c>
       <c r="AD2" t="n">
-        <v>117938.8387491629</v>
+        <v>138384.35780893</v>
       </c>
       <c r="AE2" t="n">
-        <v>161369.1222708845</v>
+        <v>189343.5834410854</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.224453758339168e-06</v>
+        <v>9.183353177058943e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.226888020833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>145968.2797243813</v>
+        <v>171272.8975829099</v>
       </c>
     </row>
   </sheetData>
@@ -9914,28 +9914,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.7490719039839</v>
+        <v>173.2862039271052</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.0520660573024</v>
+        <v>237.0978290607287</v>
       </c>
       <c r="AC2" t="n">
-        <v>179.1502548406702</v>
+        <v>214.4695450241344</v>
       </c>
       <c r="AD2" t="n">
-        <v>144749.0719039839</v>
+        <v>173286.2039271052</v>
       </c>
       <c r="AE2" t="n">
-        <v>198052.0660573024</v>
+        <v>237097.8290607287</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.33856861621128e-06</v>
+        <v>7.940875473230422e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.740559895833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>179150.2548406702</v>
+        <v>214469.5450241344</v>
       </c>
     </row>
   </sheetData>
@@ -10211,28 +10211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.4673275160119</v>
+        <v>144.5138401183187</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.1969562676229</v>
+        <v>197.7302115504614</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.3353520203802</v>
+        <v>178.8591176762363</v>
       </c>
       <c r="AD2" t="n">
-        <v>121467.3275160119</v>
+        <v>144513.8401183187</v>
       </c>
       <c r="AE2" t="n">
-        <v>166196.9562676229</v>
+        <v>197730.2115504614</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.267780204953856e-06</v>
+        <v>8.281961206736449e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.7548828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>150335.3520203802</v>
+        <v>178859.1176762363</v>
       </c>
     </row>
     <row r="3">
@@ -10317,28 +10317,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.1818184204863</v>
+        <v>131.0577388222009</v>
       </c>
       <c r="AB3" t="n">
-        <v>148.0191366078386</v>
+        <v>179.3189801158303</v>
       </c>
       <c r="AC3" t="n">
-        <v>133.8923979561898</v>
+        <v>162.2050283293949</v>
       </c>
       <c r="AD3" t="n">
-        <v>108181.8184204863</v>
+        <v>131057.7388222009</v>
       </c>
       <c r="AE3" t="n">
-        <v>148019.1366078386</v>
+        <v>179318.9801158303</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.670549622976406e-06</v>
+        <v>9.063566756959165e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.430989583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>133892.3979561898</v>
+        <v>162205.0283293949</v>
       </c>
     </row>
   </sheetData>
@@ -10614,28 +10614,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>180.9425736124307</v>
+        <v>205.001575875251</v>
       </c>
       <c r="AB2" t="n">
-        <v>247.5736118393773</v>
+        <v>280.4922001436208</v>
       </c>
       <c r="AC2" t="n">
-        <v>223.9455337972456</v>
+        <v>253.7224182352715</v>
       </c>
       <c r="AD2" t="n">
-        <v>180942.5736124307</v>
+        <v>205001.575875251</v>
       </c>
       <c r="AE2" t="n">
-        <v>247573.6118393773</v>
+        <v>280492.2001436208</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.42951305822691e-06</v>
+        <v>6.435111652548787e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.503580729166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>223945.5337972456</v>
+        <v>253722.4182352715</v>
       </c>
     </row>
     <row r="3">
@@ -10720,28 +10720,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.2153842307691</v>
+        <v>136.0184534384256</v>
       </c>
       <c r="AB3" t="n">
-        <v>153.5380392978294</v>
+        <v>186.1064487050285</v>
       </c>
       <c r="AC3" t="n">
-        <v>138.8845843192781</v>
+        <v>168.3447104427142</v>
       </c>
       <c r="AD3" t="n">
-        <v>112215.3842307691</v>
+        <v>136018.4534384256</v>
       </c>
       <c r="AE3" t="n">
-        <v>153538.0392978294</v>
+        <v>186106.4487050285</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.653471537059525e-06</v>
+        <v>8.731737831147967e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.318684895833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>138884.5843192781</v>
+        <v>168344.7104427142</v>
       </c>
     </row>
   </sheetData>
@@ -11017,28 +11017,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>183.7274700277672</v>
+        <v>220.1976496801081</v>
       </c>
       <c r="AB2" t="n">
-        <v>251.3840299757975</v>
+        <v>301.2841387268775</v>
       </c>
       <c r="AC2" t="n">
-        <v>227.3922909746825</v>
+        <v>272.5300033818177</v>
       </c>
       <c r="AD2" t="n">
-        <v>183727.4700277672</v>
+        <v>220197.6496801081</v>
       </c>
       <c r="AE2" t="n">
-        <v>251384.0299757975</v>
+        <v>301284.1387268775</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.68512604866085e-06</v>
+        <v>6.71529647474249e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.390950520833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>227392.2909746825</v>
+        <v>272530.0033818177</v>
       </c>
     </row>
   </sheetData>
@@ -11314,28 +11314,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.1776763932866</v>
+        <v>126.8055703419721</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.9087369528336</v>
+        <v>173.5009756087504</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.1742890752749</v>
+        <v>156.9422860068483</v>
       </c>
       <c r="AD2" t="n">
-        <v>105177.6763932866</v>
+        <v>126805.5703419721</v>
       </c>
       <c r="AE2" t="n">
-        <v>143908.7369528336</v>
+        <v>173500.9756087504</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.53508212484101e-06</v>
+        <v>9.339019600897011e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.751627604166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>130174.2890752749</v>
+        <v>156942.2860068483</v>
       </c>
     </row>
   </sheetData>
@@ -11611,28 +11611,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.8529992598356</v>
+        <v>130.3756139173824</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.569231725759</v>
+        <v>178.3856667278311</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.4854313646102</v>
+        <v>161.3607890612325</v>
       </c>
       <c r="AD2" t="n">
-        <v>107852.9992598356</v>
+        <v>130375.6139173824</v>
       </c>
       <c r="AE2" t="n">
-        <v>147569.231725759</v>
+        <v>178385.6667278311</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.591907655395011e-06</v>
+        <v>9.09741448964253e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.566080729166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>133485.4313646102</v>
+        <v>161360.7890612325</v>
       </c>
     </row>
     <row r="3">
@@ -11717,28 +11717,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.4854526309736</v>
+        <v>129.0080672885204</v>
       </c>
       <c r="AB3" t="n">
-        <v>145.6980940962517</v>
+        <v>176.5145290983238</v>
       </c>
       <c r="AC3" t="n">
-        <v>131.7928724843043</v>
+        <v>159.6682301809266</v>
       </c>
       <c r="AD3" t="n">
-        <v>106485.4526309736</v>
+        <v>129008.0672885204</v>
       </c>
       <c r="AE3" t="n">
-        <v>145698.0940962517</v>
+        <v>176514.5290983238</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.651174306189963e-06</v>
+        <v>9.214832636556071e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.5205078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>131792.8724843043</v>
+        <v>159668.2301809266</v>
       </c>
     </row>
   </sheetData>
